--- a/Sprocket sizes.xlsx
+++ b/Sprocket sizes.xlsx
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:I14"/>
+  <dimension ref="E3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +364,7 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>24</v>
       </c>
@@ -395,32 +395,40 @@
         <v>9.9272727272727277</v>
       </c>
       <c r="I4">
-        <f>H4/2-2</f>
-        <v>2.9636363636363638</v>
-      </c>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+        <f>H4-1.75</f>
+        <v>8.1772727272727277</v>
+      </c>
+      <c r="J4">
+        <f>I4/2</f>
+        <v>4.0886363636363638</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>23</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="0">2.6*E5</f>
+        <f t="shared" ref="F5:F15" si="0">2.6*E5</f>
         <v>59.800000000000004</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G14" si="1">F5/22*7</f>
+        <f t="shared" ref="G5:G15" si="1">F5/22*7</f>
         <v>19.027272727272727</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H14" si="2">G5/2</f>
+        <f t="shared" ref="H5:H15" si="2">G5/2</f>
         <v>9.5136363636363637</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I14" si="3">H5/2-2</f>
-        <v>2.7568181818181818</v>
-      </c>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I5:I16" si="3">H5-1.75</f>
+        <v>7.7636363636363637</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J16" si="4">I5/2</f>
+        <v>3.8818181818181818</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>20</v>
       </c>
@@ -438,10 +446,14 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>2.1363636363636367</v>
-      </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+        <v>6.5227272727272734</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>3.2613636363636367</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>17</v>
       </c>
@@ -459,10 +471,14 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1.5159090909090911</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+        <v>5.2818181818181822</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>2.6409090909090911</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>16</v>
       </c>
@@ -480,10 +496,14 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.3090909090909091</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+        <v>4.8681818181818182</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>2.4340909090909091</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>14</v>
       </c>
@@ -501,10 +521,14 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.8954545454545455</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+        <v>4.040909090909091</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>2.0204545454545455</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>15</v>
       </c>
@@ -522,10 +546,14 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>1.1022727272727271</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+        <v>4.4545454545454541</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>2.2272727272727271</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>18</v>
       </c>
@@ -543,10 +571,14 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1.7227272727272731</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+        <v>5.6954545454545462</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>2.8477272727272731</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>21</v>
       </c>
@@ -564,10 +596,14 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>2.3431818181818187</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+        <v>6.9363636363636374</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>3.4681818181818187</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>24</v>
       </c>
@@ -585,10 +621,14 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>2.9636363636363638</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+        <v>8.1772727272727277</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>4.0886363636363638</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>29</v>
       </c>
@@ -606,7 +646,50 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>3.997727272727273</v>
+        <v>10.245454545454546</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>5.122727272727273</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>4.1363636363636367</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2.3863636363636367</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>1.1931818181818183</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f>H6/2</f>
+        <v>4.1363636363636367</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2.3863636363636367</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>1.1931818181818183</v>
       </c>
     </row>
   </sheetData>
